--- a/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>BLSSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,23 +954,29 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,40 +1060,46 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-2400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,34 +1173,40 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2800</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>2800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1167,34 +1226,40 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2800</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1285,29 +1358,35 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2800</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,19 +1432,25 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1374,34 +1459,40 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2800</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1420,11 +1511,11 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,19 +1591,25 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1515,45 +1618,51 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2800</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1562,34 +1671,40 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-2800</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,25 +1750,31 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1677,13 +1798,19 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,19 +1962,25 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1844,34 +1989,40 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,19 +2068,25 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -1938,86 +2095,98 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>500</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,13 +2327,19 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2169,13 +2354,13 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2184,10 +2369,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,13 +2433,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2278,95 +2475,107 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
-      </c>
       <c r="H46" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2383,13 +2592,19 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>1000</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -2419,19 +2634,25 @@
         <v>1000</v>
       </c>
       <c r="N48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3900</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,43 +2804,49 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>6600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,13 +3009,15 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>100</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2774,7 +3035,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2783,27 +3044,33 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2824,19 +3091,19 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -2844,13 +3111,19 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2867,14 +3140,14 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2891,13 +3164,19 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>200</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2918,28 +3197,34 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2974,19 +3259,25 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3011,17 +3302,17 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3030,10 +3321,16 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,13 +3482,19 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>200</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3200,28 +3515,34 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-52500</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3">
-        <v>-52500</v>
+        <v>-50700</v>
       </c>
       <c r="F72" s="3">
-        <v>-52400</v>
+        <v>-50700</v>
       </c>
       <c r="G72" s="3">
-        <v>-52300</v>
+        <v>-50600</v>
       </c>
       <c r="H72" s="3">
-        <v>-52200</v>
+        <v>-50600</v>
       </c>
       <c r="I72" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-52100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-52000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-52800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-52600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-51500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-51200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-49100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,71 +4086,83 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -3782,34 +4171,40 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4121,16 +4554,16 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4139,25 +4572,31 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,31 +4614,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4214,16 +4655,22 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4590,35 +5081,41 @@
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4637,11 +5134,11 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4662,10 +5159,16 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4676,22 +5179,22 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
@@ -4700,15 +5203,21 @@
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>BLSSF</t>
   </si>
@@ -1173,7 +1173,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1226,7 +1226,7 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1443,8 +1443,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1459,7 +1459,7 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1602,8 +1602,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1618,7 +1618,7 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1655,8 +1655,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1671,7 +1671,7 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1973,8 +1973,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1989,7 +1989,7 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2079,8 +2079,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2095,7 +2095,7 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2232,8 +2232,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2251,7 +2251,7 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
@@ -2338,8 +2338,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2444,8 +2444,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2497,8 +2497,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2510,7 +2510,7 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
@@ -2603,8 +2603,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -2815,8 +2815,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2921,26 +2921,26 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
         <v>1200</v>
       </c>
       <c r="F54" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G54" s="3">
         <v>1300</v>
       </c>
       <c r="H54" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I54" s="3">
         <v>1500</v>
       </c>
       <c r="J54" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K54" s="3">
         <v>1600</v>
@@ -3016,8 +3016,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3069,8 +3069,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3122,8 +3122,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3175,8 +3175,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3493,8 +3493,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3779,26 +3779,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-53200</v>
       </c>
       <c r="E72" s="3">
-        <v>-50700</v>
+        <v>-53200</v>
       </c>
       <c r="F72" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="G72" s="3">
-        <v>-50600</v>
+        <v>-53000</v>
       </c>
       <c r="H72" s="3">
-        <v>-50600</v>
+        <v>-52900</v>
       </c>
       <c r="I72" s="3">
-        <v>-50500</v>
+        <v>-52800</v>
       </c>
       <c r="J72" s="3">
-        <v>-50400</v>
+        <v>-52800</v>
       </c>
       <c r="K72" s="3">
         <v>-52100</v>
@@ -3991,8 +3991,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>1000</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
@@ -4010,7 +4010,7 @@
         <v>1300</v>
       </c>
       <c r="J76" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K76" s="3">
         <v>1500</v>
@@ -4155,8 +4155,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -4171,7 +4171,7 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>BLSSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,23 +988,29 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1062,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1066,23 +1106,29 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-2400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1204,15 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1185,28 +1239,34 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2800</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+        <v>2800</v>
+      </c>
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1238,28 +1298,34 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-2800</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1364,29 +1438,35 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2800</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,25 +1518,31 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1471,57 +1557,63 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2800</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,25 +1695,31 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1630,45 +1734,51 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2800</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1683,28 +1793,34 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2800</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-2800</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1804,13 +1926,19 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,25 +2108,31 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2001,28 +2147,34 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,25 +2226,31 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2107,86 +2265,98 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2528,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2360,13 +2546,13 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2375,10 +2561,10 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,13 +2631,19 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2481,83 +2679,95 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>200</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2568,20 +2778,20 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,19 +2826,19 @@
         <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
@@ -2640,19 +2856,25 @@
         <v>1000</v>
       </c>
       <c r="P48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3900</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,40 +3059,40 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3271,15 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3041,7 +3303,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3050,22 +3312,28 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,19 +3365,19 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3146,14 +3420,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,13 +3444,19 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>200</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3203,28 +3483,34 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3265,19 +3551,25 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3308,17 +3600,17 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3327,10 +3619,16 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3798,19 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3521,28 +3837,34 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-53200</v>
+        <v>-54100</v>
       </c>
       <c r="E72" s="3">
-        <v>-53200</v>
+        <v>-53900</v>
       </c>
       <c r="F72" s="3">
-        <v>-53100</v>
+        <v>-53800</v>
       </c>
       <c r="G72" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-53000</v>
       </c>
-      <c r="H72" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="P72" s="3">
         <v>-52800</v>
       </c>
-      <c r="J72" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-52100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-52000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-53000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-52600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-51500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-51200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-48400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-49100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,83 +4470,95 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4183,28 +4573,34 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4970,19 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4560,16 +4994,16 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -4578,25 +5012,31 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +5056,21 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4636,17 +5078,17 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4661,16 +5103,22 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,16 +5547,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
@@ -5087,64 +5579,70 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5165,18 +5663,24 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5185,22 +5689,22 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
@@ -5209,15 +5713,21 @@
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLSSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>BLSSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,12 +1007,12 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,8 +1113,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1112,46 +1131,49 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-2400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,17 +1231,18 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
@@ -1245,28 +1271,31 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1304,28 +1333,31 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1444,29 +1480,32 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>-200</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,16 +1563,19 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1542,10 +1584,10 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1563,28 +1605,31 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1609,14 +1654,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,16 +1749,19 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1719,10 +1770,10 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1740,36 +1791,39 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1778,10 +1832,10 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1799,28 +1853,31 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1932,13 +1992,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>200</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,16 +2183,19 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2132,10 +2204,10 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2153,28 +2225,31 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,16 +2307,19 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2250,10 +2328,10 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2271,92 +2349,98 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,19 +2608,22 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2552,10 +2644,10 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2567,7 +2659,7 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,17 +2732,20 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2685,45 +2783,48 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
@@ -2732,31 +2833,34 @@
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2784,17 +2888,17 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>100</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
+        <v>100</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2814,16 +2918,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>9300</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
@@ -2841,7 +2948,7 @@
         <v>1100</v>
       </c>
       <c r="K48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
@@ -2862,19 +2969,22 @@
         <v>1000</v>
       </c>
       <c r="R48" s="3">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="S48" s="3">
         <v>1900</v>
       </c>
       <c r="T48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U48" s="3">
         <v>3900</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3065,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3073,8 +3192,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3082,11 +3201,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3094,8 +3213,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,22 +3290,25 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1200</v>
-      </c>
       <c r="G54" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H54" s="3">
         <v>1300</v>
@@ -3195,40 +3320,43 @@
         <v>1400</v>
       </c>
       <c r="K54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L54" s="3">
         <v>1500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1600</v>
       </c>
       <c r="M54" s="3">
         <v>1600</v>
       </c>
       <c r="N54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,17 +3402,18 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
@@ -3309,36 +3439,39 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3371,7 +3504,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3379,8 +3512,8 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>200</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3391,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3426,11 +3562,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3450,16 +3586,19 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3489,28 +3628,31 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3557,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
@@ -3566,10 +3708,13 @@
         <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3606,14 +3751,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3625,10 +3770,13 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,16 +3958,19 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -3843,28 +4000,31 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
       <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-54100</v>
+        <v>-55900</v>
       </c>
       <c r="E72" s="3">
-        <v>-53900</v>
+        <v>-55800</v>
       </c>
       <c r="F72" s="3">
-        <v>-53800</v>
+        <v>-55500</v>
       </c>
       <c r="G72" s="3">
-        <v>-53800</v>
+        <v>-55400</v>
       </c>
       <c r="H72" s="3">
-        <v>-53700</v>
+        <v>-55400</v>
       </c>
       <c r="I72" s="3">
-        <v>-53700</v>
+        <v>-55300</v>
       </c>
       <c r="J72" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-52800</v>
       </c>
       <c r="L72" s="3">
         <v>-52800</v>
       </c>
       <c r="M72" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="N72" s="3">
         <v>-52100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-51200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-48400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-49100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,19 +4540,22 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1000</v>
       </c>
       <c r="G76" s="3">
         <v>1000</v>
@@ -4385,40 +4570,43 @@
         <v>1200</v>
       </c>
       <c r="K76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,80 +4664,86 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -4558,10 +4752,10 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4579,28 +4773,31 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,37 +5189,40 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5018,25 +5234,28 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
-        <v>-100</v>
-      </c>
       <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5084,14 +5304,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5109,16 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>100</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
-        <v>-100</v>
-      </c>
       <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,20 +5795,23 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5585,11 +5830,11 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>-100</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5598,22 +5843,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5638,14 +5886,14 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5669,45 +5917,48 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
@@ -5719,15 +5970,18 @@
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
